--- a/Reports/GW Preview.xlsx
+++ b/Reports/GW Preview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvtm2\Desktop\Python\FootballPoisson\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D6C509-42BF-4FF7-B78D-89172FF54E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F7BF7-B618-4098-9A25-6A81D9EEC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="32370" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="FWD" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -491,9 +490,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>LoD</t>
-  </si>
-  <si>
     <t>A.Becker</t>
   </si>
   <si>
@@ -1350,6 +1346,10 @@
   </si>
   <si>
     <t>G.Jesus</t>
+  </si>
+  <si>
+    <t>LOd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1649,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1750,7 +1750,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4171,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
@@ -4220,7 +4219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="71" t="s">
@@ -5714,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -7654,7 +7653,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>436</v>
       </c>
       <c r="B23" s="19">
         <v>1.3833333333333331</v>
@@ -10055,7 +10054,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -10169,7 +10168,7 @@
     </row>
     <row r="2" spans="1:26" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>53</v>
@@ -10249,7 +10248,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>45</v>
@@ -10329,7 +10328,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>63</v>
@@ -10409,7 +10408,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>92</v>
@@ -10489,7 +10488,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>92</v>
@@ -10569,7 +10568,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>63</v>
@@ -10649,7 +10648,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>67</v>
@@ -10889,7 +10888,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>41</v>
@@ -10969,7 +10968,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>56</v>
@@ -11049,7 +11048,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>57</v>
@@ -11129,7 +11128,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>67</v>
@@ -11209,7 +11208,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>72</v>
@@ -11289,7 +11288,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>65</v>
@@ -11369,7 +11368,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>54</v>
@@ -11449,7 +11448,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>71</v>
@@ -11529,7 +11528,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>60</v>
@@ -11689,7 +11688,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>59</v>
@@ -11769,7 +11768,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>46</v>
@@ -11849,7 +11848,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>96</v>
@@ -11929,7 +11928,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>96</v>
@@ -12009,7 +12008,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>51</v>
@@ -12089,7 +12088,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>46</v>
@@ -12507,7 +12506,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>53</v>
@@ -12685,7 +12684,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>53</v>
@@ -12768,7 +12767,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>53</v>
@@ -12857,7 +12856,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>53</v>
@@ -12946,7 +12945,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>53</v>
@@ -13029,7 +13028,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>53</v>
@@ -13118,7 +13117,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>92</v>
@@ -13385,7 +13384,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>45</v>
@@ -13474,7 +13473,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="77" t="s">
         <v>92</v>
@@ -13563,7 +13562,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>92</v>
@@ -13646,7 +13645,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="77" t="s">
         <v>68</v>
@@ -13735,7 +13734,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>68</v>
@@ -14002,7 +14001,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>45</v>
@@ -14091,7 +14090,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>68</v>
@@ -14269,7 +14268,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>68</v>
@@ -14358,7 +14357,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>68</v>
@@ -14441,7 +14440,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="75" t="s">
         <v>45</v>
@@ -14530,7 +14529,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="77" t="s">
         <v>63</v>
@@ -14619,7 +14618,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="75" t="s">
         <v>45</v>
@@ -14797,7 +14796,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>45</v>
@@ -14880,7 +14879,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="77" t="s">
         <v>63</v>
@@ -14969,7 +14968,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="75" t="s">
         <v>45</v>
@@ -15058,7 +15057,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="77" t="s">
         <v>63</v>
@@ -15236,7 +15235,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="77" t="s">
         <v>63</v>
@@ -15319,7 +15318,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="75" t="s">
         <v>50</v>
@@ -15402,7 +15401,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="77" t="s">
         <v>41</v>
@@ -15491,7 +15490,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="75" t="s">
         <v>50</v>
@@ -15580,7 +15579,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="77" t="s">
         <v>67</v>
@@ -15758,7 +15757,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="77" t="s">
         <v>50</v>
@@ -15847,7 +15846,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="75" t="s">
         <v>67</v>
@@ -15936,7 +15935,7 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="77" t="s">
         <v>50</v>
@@ -16019,7 +16018,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="75" t="s">
         <v>50</v>
@@ -16108,7 +16107,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" s="77" t="s">
         <v>50</v>
@@ -16197,7 +16196,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="75" t="s">
         <v>41</v>
@@ -16286,7 +16285,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="77" t="s">
         <v>41</v>
@@ -16375,7 +16374,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="75" t="s">
         <v>72</v>
@@ -16464,7 +16463,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="77" t="s">
         <v>72</v>
@@ -16731,7 +16730,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="75" t="s">
         <v>67</v>
@@ -16820,7 +16819,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="77" t="s">
         <v>72</v>
@@ -16909,7 +16908,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="75" t="s">
         <v>67</v>
@@ -16992,7 +16991,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="77" t="s">
         <v>72</v>
@@ -17081,7 +17080,7 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="75" t="s">
         <v>41</v>
@@ -17164,7 +17163,7 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="77" t="s">
         <v>56</v>
@@ -17342,7 +17341,7 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58" s="77" t="s">
         <v>56</v>
@@ -17431,7 +17430,7 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="75" t="s">
         <v>56</v>
@@ -17876,7 +17875,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="77" t="s">
         <v>65</v>
@@ -17965,7 +17964,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B65" s="75" t="s">
         <v>54</v>
@@ -18048,7 +18047,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B66" s="77" t="s">
         <v>54</v>
@@ -18137,7 +18136,7 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B67" s="75" t="s">
         <v>54</v>
@@ -18226,7 +18225,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B68" s="77" t="s">
         <v>54</v>
@@ -18404,7 +18403,7 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B70" s="77" t="s">
         <v>54</v>
@@ -18493,7 +18492,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B71" s="75" t="s">
         <v>71</v>
@@ -18582,7 +18581,7 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B72" s="77" t="s">
         <v>57</v>
@@ -18671,7 +18670,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" s="75" t="s">
         <v>57</v>
@@ -18760,7 +18759,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="77" t="s">
         <v>71</v>
@@ -18849,7 +18848,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="75" t="s">
         <v>57</v>
@@ -18938,7 +18937,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B76" s="77" t="s">
         <v>71</v>
@@ -19027,7 +19026,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B77" s="75" t="s">
         <v>65</v>
@@ -19116,7 +19115,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B78" s="77" t="s">
         <v>57</v>
@@ -19205,7 +19204,7 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B79" s="75" t="s">
         <v>65</v>
@@ -19294,7 +19293,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B80" s="77" t="s">
         <v>65</v>
@@ -19383,7 +19382,7 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="75" t="s">
         <v>65</v>
@@ -19466,7 +19465,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B82" s="77" t="s">
         <v>57</v>
@@ -19549,7 +19548,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A83" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B83" s="75" t="s">
         <v>71</v>
@@ -19638,7 +19637,7 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B84" s="77" t="s">
         <v>57</v>
@@ -19810,7 +19809,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" s="77" t="s">
         <v>59</v>
@@ -19899,7 +19898,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B87" s="75" t="s">
         <v>59</v>
@@ -19988,7 +19987,7 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B88" s="77" t="s">
         <v>59</v>
@@ -20166,7 +20165,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A90" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B90" s="77" t="s">
         <v>60</v>
@@ -20255,7 +20254,7 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" s="75" t="s">
         <v>60</v>
@@ -20344,7 +20343,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B92" s="77" t="s">
         <v>60</v>
@@ -20433,7 +20432,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B93" s="75" t="s">
         <v>60</v>
@@ -20522,7 +20521,7 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B94" s="77" t="s">
         <v>60</v>
@@ -20789,7 +20788,7 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B97" s="75" t="s">
         <v>43</v>
@@ -20878,7 +20877,7 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A98" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B98" s="77" t="s">
         <v>46</v>
@@ -20967,7 +20966,7 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B99" s="75" t="s">
         <v>46</v>
@@ -21056,7 +21055,7 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B100" s="77" t="s">
         <v>43</v>
@@ -21145,7 +21144,7 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B101" s="75" t="s">
         <v>46</v>
@@ -21234,7 +21233,7 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B102" s="77" t="s">
         <v>46</v>
@@ -21323,7 +21322,7 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103" s="75" t="s">
         <v>43</v>
@@ -21412,7 +21411,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B104" s="77" t="s">
         <v>43</v>
@@ -21495,7 +21494,7 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A105" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B105" s="75" t="s">
         <v>46</v>
@@ -21673,7 +21672,7 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A107" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B107" s="75" t="s">
         <v>51</v>
@@ -21762,7 +21761,7 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A108" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B108" s="77" t="s">
         <v>51</v>
@@ -21851,7 +21850,7 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A109" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" s="75" t="s">
         <v>51</v>
@@ -22029,7 +22028,7 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A111" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" s="75" t="s">
         <v>51</v>
@@ -22118,7 +22117,7 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A112" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" s="77" t="s">
         <v>51</v>
@@ -22290,7 +22289,7 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A114" s="76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B114" s="77" t="s">
         <v>96</v>
@@ -22379,7 +22378,7 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A115" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115" s="75" t="s">
         <v>96</v>
@@ -22468,7 +22467,7 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A116" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116" s="77" t="s">
         <v>96</v>
@@ -22557,7 +22556,7 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A117" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117" s="75" t="s">
         <v>96</v>
@@ -22646,7 +22645,7 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A118" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" s="77" t="s">
         <v>96</v>
@@ -23426,7 +23425,7 @@
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>60</v>
@@ -23675,7 +23674,7 @@
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>92</v>
@@ -23758,7 +23757,7 @@
     </row>
     <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>68</v>
@@ -23841,7 +23840,7 @@
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>50</v>
@@ -24007,7 +24006,7 @@
     </row>
     <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>45</v>
@@ -24173,7 +24172,7 @@
     </row>
     <row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>45</v>
@@ -24422,7 +24421,7 @@
     </row>
     <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>60</v>
@@ -24588,7 +24587,7 @@
     </row>
     <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>92</v>
@@ -24831,7 +24830,7 @@
     </row>
     <row r="23" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>56</v>
@@ -24914,7 +24913,7 @@
     </row>
     <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>41</v>
@@ -24997,7 +24996,7 @@
     </row>
     <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>59</v>
@@ -25246,7 +25245,7 @@
     </row>
     <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>53</v>
@@ -25329,7 +25328,7 @@
     </row>
     <row r="29" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>50</v>
@@ -25412,7 +25411,7 @@
     </row>
     <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>51</v>
@@ -25495,7 +25494,7 @@
     </row>
     <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>60</v>
@@ -25578,7 +25577,7 @@
     </row>
     <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>67</v>
@@ -25661,7 +25660,7 @@
     </row>
     <row r="33" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>50</v>
@@ -25744,7 +25743,7 @@
     </row>
     <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>68</v>
@@ -25827,7 +25826,7 @@
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>92</v>
@@ -25910,7 +25909,7 @@
     </row>
     <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>41</v>
@@ -25993,7 +25992,7 @@
     </row>
     <row r="37" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>56</v>
@@ -26159,7 +26158,7 @@
     </row>
     <row r="39" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>68</v>
@@ -26242,7 +26241,7 @@
     </row>
     <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>63</v>
@@ -26408,7 +26407,7 @@
     </row>
     <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="55" t="s">
         <v>60</v>
@@ -26491,7 +26490,7 @@
     </row>
     <row r="43" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>68</v>
@@ -26574,7 +26573,7 @@
     </row>
     <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>45</v>
@@ -26657,7 +26656,7 @@
     </row>
     <row r="45" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>67</v>
@@ -26740,7 +26739,7 @@
     </row>
     <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>53</v>
@@ -26823,7 +26822,7 @@
     </row>
     <row r="47" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>72</v>
@@ -26906,7 +26905,7 @@
     </row>
     <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="55" t="s">
         <v>57</v>
@@ -26989,7 +26988,7 @@
     </row>
     <row r="49" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>56</v>
@@ -27072,7 +27071,7 @@
     </row>
     <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>45</v>
@@ -27155,7 +27154,7 @@
     </row>
     <row r="51" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>67</v>
@@ -27238,7 +27237,7 @@
     </row>
     <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>60</v>
@@ -27321,7 +27320,7 @@
     </row>
     <row r="53" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>57</v>
@@ -27404,7 +27403,7 @@
     </row>
     <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B54" s="55" t="s">
         <v>72</v>
@@ -27487,7 +27486,7 @@
     </row>
     <row r="55" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>41</v>
@@ -27570,7 +27569,7 @@
     </row>
     <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="55" t="s">
         <v>50</v>
@@ -27647,7 +27646,7 @@
     </row>
     <row r="57" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B57" s="52" t="s">
         <v>92</v>
@@ -27730,7 +27729,7 @@
     </row>
     <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>57</v>
@@ -27813,7 +27812,7 @@
     </row>
     <row r="59" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>68</v>
@@ -27896,7 +27895,7 @@
     </row>
     <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" s="55" t="s">
         <v>53</v>
@@ -27979,7 +27978,7 @@
     </row>
     <row r="61" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="52" t="s">
         <v>63</v>
@@ -28145,7 +28144,7 @@
     </row>
     <row r="63" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B63" s="52" t="s">
         <v>65</v>
@@ -28228,7 +28227,7 @@
     </row>
     <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="55" t="s">
         <v>71</v>
@@ -28311,7 +28310,7 @@
     </row>
     <row r="65" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>71</v>
@@ -28394,7 +28393,7 @@
     </row>
     <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>59</v>
@@ -28477,7 +28476,7 @@
     </row>
     <row r="67" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>92</v>
@@ -28560,7 +28559,7 @@
     </row>
     <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B68" s="55" t="s">
         <v>41</v>
@@ -28643,7 +28642,7 @@
     </row>
     <row r="69" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B69" s="52" t="s">
         <v>71</v>
@@ -28720,7 +28719,7 @@
     </row>
     <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B70" s="55" t="s">
         <v>72</v>
@@ -28803,7 +28802,7 @@
     </row>
     <row r="71" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>71</v>
@@ -28886,7 +28885,7 @@
     </row>
     <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>41</v>
@@ -28969,7 +28968,7 @@
     </row>
     <row r="73" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B73" s="52" t="s">
         <v>51</v>
@@ -29052,7 +29051,7 @@
     </row>
     <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B74" s="55" t="s">
         <v>63</v>
@@ -29135,7 +29134,7 @@
     </row>
     <row r="75" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>43</v>
@@ -29218,7 +29217,7 @@
     </row>
     <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B76" s="55" t="s">
         <v>51</v>
@@ -29301,7 +29300,7 @@
     </row>
     <row r="77" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" s="52" t="s">
         <v>59</v>
@@ -29384,7 +29383,7 @@
     </row>
     <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B78" s="55" t="s">
         <v>53</v>
@@ -29550,7 +29549,7 @@
     </row>
     <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>72</v>
@@ -29633,7 +29632,7 @@
     </row>
     <row r="81" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B81" s="52" t="s">
         <v>63</v>
@@ -29716,7 +29715,7 @@
     </row>
     <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B82" s="55" t="s">
         <v>51</v>
@@ -29799,7 +29798,7 @@
     </row>
     <row r="83" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B83" s="52" t="s">
         <v>63</v>
@@ -29882,7 +29881,7 @@
     </row>
     <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B84" s="55" t="s">
         <v>92</v>
@@ -29965,7 +29964,7 @@
     </row>
     <row r="85" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B85" s="52" t="s">
         <v>65</v>
@@ -30048,7 +30047,7 @@
     </row>
     <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B86" s="55" t="s">
         <v>43</v>
@@ -30131,7 +30130,7 @@
     </row>
     <row r="87" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B87" s="52" t="s">
         <v>45</v>
@@ -30208,7 +30207,7 @@
     </row>
     <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B88" s="55" t="s">
         <v>50</v>
@@ -30285,7 +30284,7 @@
     </row>
     <row r="89" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B89" s="52" t="s">
         <v>59</v>
@@ -30362,7 +30361,7 @@
     </row>
     <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B90" s="55" t="s">
         <v>67</v>
@@ -30439,7 +30438,7 @@
     </row>
     <row r="91" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B91" s="52" t="s">
         <v>67</v>
@@ -30516,7 +30515,7 @@
     </row>
     <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B92" s="55" t="s">
         <v>43</v>
@@ -30682,7 +30681,7 @@
     </row>
     <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>59</v>
@@ -30765,7 +30764,7 @@
     </row>
     <row r="95" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B95" s="52" t="s">
         <v>57</v>
@@ -30848,7 +30847,7 @@
     </row>
     <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B96" s="55" t="s">
         <v>43</v>
@@ -30931,7 +30930,7 @@
     </row>
     <row r="97" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B97" s="52" t="s">
         <v>96</v>
@@ -31014,7 +31013,7 @@
     </row>
     <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>59</v>
@@ -31097,7 +31096,7 @@
     </row>
     <row r="99" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>53</v>
@@ -31180,7 +31179,7 @@
     </row>
     <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B100" s="55" t="s">
         <v>72</v>
@@ -31263,7 +31262,7 @@
     </row>
     <row r="101" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B101" s="52" t="s">
         <v>59</v>
@@ -31346,7 +31345,7 @@
     </row>
     <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>57</v>
@@ -31423,7 +31422,7 @@
     </row>
     <row r="103" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B103" s="52" t="s">
         <v>67</v>
@@ -31500,7 +31499,7 @@
     </row>
     <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>65</v>
@@ -31583,7 +31582,7 @@
     </row>
     <row r="105" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B105" s="52" t="s">
         <v>65</v>
@@ -31666,7 +31665,7 @@
     </row>
     <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>68</v>
@@ -31749,7 +31748,7 @@
     </row>
     <row r="107" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107" s="52" t="s">
         <v>43</v>
@@ -31832,7 +31831,7 @@
     </row>
     <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>96</v>
@@ -31915,7 +31914,7 @@
     </row>
     <row r="109" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B109" s="52" t="s">
         <v>92</v>
@@ -31992,7 +31991,7 @@
     </row>
     <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>72</v>
@@ -32075,7 +32074,7 @@
     </row>
     <row r="111" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B111" s="52" t="s">
         <v>68</v>
@@ -32152,7 +32151,7 @@
     </row>
     <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B112" s="55" t="s">
         <v>65</v>
@@ -32235,7 +32234,7 @@
     </row>
     <row r="113" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B113" s="52" t="s">
         <v>50</v>
@@ -32312,7 +32311,7 @@
     </row>
     <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B114" s="55" t="s">
         <v>71</v>
@@ -32395,7 +32394,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B115" s="52" t="s">
         <v>56</v>
@@ -32478,7 +32477,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B116" s="55" t="s">
         <v>60</v>
@@ -32644,7 +32643,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A118" s="54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B118" s="55" t="s">
         <v>46</v>
@@ -32727,7 +32726,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A119" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B119" s="52" t="s">
         <v>46</v>
@@ -32810,7 +32809,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A120" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B120" s="55" t="s">
         <v>68</v>
@@ -32887,7 +32886,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B121" s="52" t="s">
         <v>56</v>
@@ -32964,7 +32963,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122" s="54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>60</v>
@@ -33047,7 +33046,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123" s="52" t="s">
         <v>57</v>
@@ -33130,7 +33129,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B124" s="55" t="s">
         <v>46</v>
@@ -33207,7 +33206,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B125" s="52" t="s">
         <v>46</v>
@@ -33290,7 +33289,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A126" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>65</v>
@@ -33367,7 +33366,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A127" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>92</v>
@@ -33444,7 +33443,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>41</v>
@@ -33521,7 +33520,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B129" s="52" t="s">
         <v>65</v>
@@ -33604,7 +33603,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B130" s="55" t="s">
         <v>65</v>
@@ -33687,7 +33686,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A131" s="51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B131" s="52" t="s">
         <v>51</v>
@@ -33764,7 +33763,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>45</v>
@@ -33847,7 +33846,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133" s="51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B133" s="52" t="s">
         <v>43</v>
@@ -33930,7 +33929,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B134" s="55" t="s">
         <v>72</v>
@@ -34007,7 +34006,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135" s="51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B135" s="52" t="s">
         <v>92</v>
@@ -34090,7 +34089,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A136" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B136" s="55" t="s">
         <v>46</v>
@@ -34173,7 +34172,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A137" s="51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137" s="52" t="s">
         <v>72</v>
@@ -34250,7 +34249,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A138" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B138" s="55" t="s">
         <v>46</v>
@@ -34327,7 +34326,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A139" s="51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B139" s="52" t="s">
         <v>56</v>
@@ -34404,7 +34403,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A140" s="54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>46</v>
@@ -34481,7 +34480,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A141" s="51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B141" s="52" t="s">
         <v>67</v>
@@ -34558,7 +34557,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A142" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>96</v>
@@ -34635,7 +34634,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A143" s="51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B143" s="52" t="s">
         <v>41</v>
@@ -34712,7 +34711,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A144" s="54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>92</v>
@@ -34789,7 +34788,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" s="52" t="s">
         <v>96</v>
@@ -34866,7 +34865,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146" s="54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146" s="55" t="s">
         <v>56</v>
@@ -34943,7 +34942,7 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" s="51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B147" s="52" t="s">
         <v>67</v>
@@ -35020,7 +35019,7 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>96</v>
@@ -35103,7 +35102,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" s="51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B149" s="52" t="s">
         <v>59</v>
@@ -35180,7 +35179,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>53</v>
@@ -35257,7 +35256,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B151" s="57" t="s">
         <v>41</v>
@@ -35334,7 +35333,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B152" s="57" t="s">
         <v>43</v>
@@ -35411,7 +35410,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B153" s="57" t="s">
         <v>96</v>
@@ -35494,7 +35493,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" s="57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B154" s="57" t="s">
         <v>43</v>
@@ -35571,7 +35570,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B155" s="57" t="s">
         <v>65</v>
@@ -35648,7 +35647,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B156" s="57" t="s">
         <v>96</v>
@@ -35731,7 +35730,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B157" s="57" t="s">
         <v>65</v>
@@ -35808,7 +35807,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" s="57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B158" s="57" t="s">
         <v>59</v>
@@ -35885,7 +35884,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" s="57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B159" s="57" t="s">
         <v>54</v>
@@ -35962,7 +35961,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" s="57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160" s="57" t="s">
         <v>60</v>
@@ -36039,7 +36038,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A161" s="57" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161" s="57" t="s">
         <v>92</v>
@@ -36116,7 +36115,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A162" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B162" s="57" t="s">
         <v>54</v>
@@ -36199,7 +36198,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163" s="57" t="s">
         <v>54</v>
@@ -36282,7 +36281,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A164" s="57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B164" s="57" t="s">
         <v>54</v>
@@ -36365,7 +36364,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A165" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B165" s="57" t="s">
         <v>96</v>
@@ -36448,7 +36447,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A166" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166" s="57" t="s">
         <v>54</v>
@@ -36614,7 +36613,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A168" s="57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B168" s="57" t="s">
         <v>53</v>
@@ -36691,7 +36690,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A169" s="57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169" s="57" t="s">
         <v>41</v>
@@ -36845,7 +36844,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A171" s="57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B171" s="57" t="s">
         <v>71</v>
@@ -36922,7 +36921,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A172" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B172" s="57" t="s">
         <v>56</v>
@@ -36999,7 +36998,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A173" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B173" s="57" t="s">
         <v>54</v>
@@ -37076,7 +37075,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A174" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174" s="57" t="s">
         <v>71</v>
@@ -37153,7 +37152,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A175" s="57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175" s="57" t="s">
         <v>72</v>
@@ -37230,7 +37229,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A176" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B176" s="57" t="s">
         <v>54</v>
@@ -37313,7 +37312,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A177" s="57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B177" s="57" t="s">
         <v>45</v>
@@ -37390,7 +37389,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A178" s="57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B178" s="57" t="s">
         <v>54</v>
@@ -37467,7 +37466,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A179" s="57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B179" s="57" t="s">
         <v>54</v>
@@ -37544,7 +37543,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A180" s="57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B180" s="57" t="s">
         <v>96</v>
@@ -37627,7 +37626,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A181" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B181" s="57" t="s">
         <v>46</v>
@@ -38254,7 +38253,7 @@
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>92</v>
@@ -38337,7 +38336,7 @@
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>50</v>
@@ -39327,7 +39326,7 @@
     </row>
     <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" s="68" t="s">
         <v>72</v>
@@ -39410,7 +39409,7 @@
     </row>
     <row r="21" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>46</v>
@@ -39493,7 +39492,7 @@
     </row>
     <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" s="68" t="s">
         <v>51</v>
@@ -39576,7 +39575,7 @@
     </row>
     <row r="23" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>67</v>
@@ -39653,7 +39652,7 @@
     </row>
     <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" s="68" t="s">
         <v>57</v>
@@ -39730,7 +39729,7 @@
     </row>
     <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>57</v>
@@ -39973,7 +39972,7 @@
     </row>
     <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B28" s="68" t="s">
         <v>65</v>
@@ -40210,7 +40209,7 @@
     </row>
     <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>60</v>
@@ -40287,7 +40286,7 @@
     </row>
     <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B32" s="68" t="s">
         <v>56</v>
@@ -40364,7 +40363,7 @@
     </row>
     <row r="33" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>54</v>
@@ -40441,7 +40440,7 @@
     </row>
     <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B34" s="68" t="s">
         <v>51</v>
@@ -40518,7 +40517,7 @@
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B35" s="65" t="s">
         <v>56</v>
@@ -40595,7 +40594,7 @@
     </row>
     <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B36" s="68" t="s">
         <v>59</v>
@@ -40672,7 +40671,7 @@
     </row>
     <row r="37" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>96</v>
@@ -40749,7 +40748,7 @@
     </row>
     <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" s="68" t="s">
         <v>53</v>
@@ -40826,7 +40825,7 @@
     </row>
     <row r="39" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B39" s="65" t="s">
         <v>63</v>
